--- a/config_10.13/shoping_config.xlsx
+++ b/config_10.13/shoping_config.xlsx
@@ -9270,10 +9270,10 @@
   <dimension ref="A1:AM407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="V353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="Q353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z374" sqref="Z374"/>
+      <selection pane="bottomRight" activeCell="Q374" sqref="Q374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32832,13 +32832,13 @@
         <v>499</v>
       </c>
       <c r="O374" s="5">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="P374" s="5" t="s">
         <v>1372</v>
       </c>
       <c r="Q374" s="10" t="s">
-        <v>1365</v>
+        <v>1234</v>
       </c>
       <c r="V374" s="5" t="s">
         <v>1366</v>

--- a/config_10.13/shoping_config.xlsx
+++ b/config_10.13/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3420" uniqueCount="1493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6039" uniqueCount="1494">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6520,6 +6520,10 @@
   </si>
   <si>
     <t>gift_asset_count|赠送财富数量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币",</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9270,10 +9274,10 @@
   <dimension ref="A1:AM407"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="Q353" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H353" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q374" sqref="Q374"/>
+      <selection pane="bottomRight" activeCell="I374" sqref="I374"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -32817,7 +32821,7 @@
         <v>1364</v>
       </c>
       <c r="I374" s="5" t="s">
-        <v>1369</v>
+        <v>1493</v>
       </c>
       <c r="K374" s="5">
         <v>-31</v>
